--- a/top30CADcities.xlsx
+++ b/top30CADcities.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEOM67\GroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEOM67\GroupProject\SantaGIT\santa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32817A3F-80D2-4113-AB05-828FD78775E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC650E2-FD68-4952-A88E-A579BB4ABBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Top20" sheetId="2" r:id="rId1"/>
+    <sheet name="Top30" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
